--- a/data/Subset1_WithDialogActs/Number lines 2_grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Number lines 2_grade 4.xlsx_with_dialog_acts.xlsx
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2677,12 +2677,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2943,12 +2943,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3323,12 +3323,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3783,12 +3783,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4049,12 +4049,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4279,12 +4279,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4583,12 +4583,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
